--- a/historic_sites.xlsx
+++ b/historic_sites.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yiyantay/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yiyantay/Desktop/Memento/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16600" tabRatio="500"/>
+    <workbookView minimized="1" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1273,11 +1273,12 @@
   <dimension ref="C1:F99"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:F1048576"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="3" max="3" width="30.1640625" customWidth="1"/>
     <col min="4" max="5" width="16.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
